--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69116551-424E-4096-8218-99C57B283049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD788970-D436-4AAC-BC64-3DC7C3F70693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,6 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -534,11 +525,6 @@
   </si>
   <si>
     <t>PayerCustNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>債權戶別為[保證人]才需要輸入
-依據問題單754</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -674,6 +660,12 @@
     <t>Y
 N
 若有N階段還款的情況,此區會存入大於0之自然數I代表第I階段還款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>債權戶別為[保證人]才需要輸入
+依據問題單754
+保證人戶號債協還款時新壽分配款應存入此借款人戶號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,10 +853,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -876,9 +868,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -891,9 +880,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -908,9 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1280,26 +1263,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1311,78 +1294,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1401,821 +1384,821 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <v>7</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <v>3</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="81">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>1</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="97.2">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="97.2">
-      <c r="A12" s="19">
+    <row r="13" spans="1:7" ht="64.8">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="64.8">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="22">
+        <v>7</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="22">
+        <v>6</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17">
+        <v>8</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="22">
+        <v>6</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="22">
+        <v>8</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17">
+        <v>10</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="22">
+        <v>16</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="22">
+        <v>3</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17">
+        <v>12</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="22">
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="F20" s="22">
+        <v>2</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="17">
+        <v>13</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="22">
+        <v>8</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17">
+        <v>14</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="22">
+        <v>8</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" ht="32.4">
+      <c r="A23" s="17">
+        <v>15</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="22">
+        <v>16</v>
+      </c>
+      <c r="F24" s="22">
+        <v>2</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="22">
+        <v>8</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17">
+        <v>18</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="22">
+        <v>16</v>
+      </c>
+      <c r="F26" s="22">
+        <v>2</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17">
+        <v>19</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="22">
+        <v>16</v>
+      </c>
+      <c r="F27" s="22">
+        <v>2</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17">
+        <v>20</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="22">
+        <v>16</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32.4">
+      <c r="A29" s="17">
+        <v>21</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="22">
+        <v>16</v>
+      </c>
+      <c r="F29" s="22">
+        <v>2</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17">
+        <v>22</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="22">
+        <v>16</v>
+      </c>
+      <c r="F30" s="22">
+        <v>2</v>
+      </c>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="17">
+        <v>23</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="22">
+        <v>3</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" ht="64.8">
+      <c r="A32" s="17">
+        <v>24</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="17">
+        <v>25</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="22">
+        <v>8</v>
+      </c>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="17">
+        <v>26</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="22">
+        <v>8</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="17">
+        <v>27</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="22">
+        <v>8</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="17">
+        <v>28</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="22">
+        <v>14</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="17">
+        <v>29</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="22">
+        <v>14</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="17">
+        <v>30</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="17">
+        <v>31</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="64.8">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="D39" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="22">
+        <v>3</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="17">
         <v>32</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="B40" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="22">
+        <v>8</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="17">
+        <v>33</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="22">
+        <v>6</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="17">
+        <v>34</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="22">
+        <v>8</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="17">
+        <v>35</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="22">
+        <v>8</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="17">
+        <v>36</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="22">
+        <v>6</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="17">
+        <v>37</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="22">
+        <v>8</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="17">
+        <v>38</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="17">
+        <v>39</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="32.4">
-      <c r="A14" s="19">
+      <c r="E47" s="22">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="25">
-        <v>7</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="25">
-        <v>6</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="25">
-        <v>6</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="25">
-        <v>8</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="25">
-        <v>16</v>
-      </c>
-      <c r="F18" s="25">
-        <v>2</v>
-      </c>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="25">
-        <v>3</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
-        <v>12</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="25">
-        <v>4</v>
-      </c>
-      <c r="F20" s="25">
-        <v>2</v>
-      </c>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="25">
-        <v>8</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="25">
-        <v>8</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" ht="32.4">
-      <c r="A23" s="19">
-        <v>15</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="25">
-        <v>1</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19">
-        <v>16</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="25">
-        <v>16</v>
-      </c>
-      <c r="F24" s="25">
-        <v>2</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
-        <v>17</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="25">
-        <v>8</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>18</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="25">
-        <v>16</v>
-      </c>
-      <c r="F26" s="25">
-        <v>2</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>19</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="25">
-        <v>16</v>
-      </c>
-      <c r="F27" s="25">
-        <v>2</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
-        <v>20</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="25">
-        <v>16</v>
-      </c>
-      <c r="F28" s="25">
-        <v>2</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="32.4">
-      <c r="A29" s="19">
-        <v>21</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="25">
-        <v>16</v>
-      </c>
-      <c r="F29" s="25">
-        <v>2</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="19">
-        <v>22</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="25">
-        <v>16</v>
-      </c>
-      <c r="F30" s="25">
-        <v>2</v>
-      </c>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="19">
-        <v>23</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="25">
-        <v>3</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" ht="64.8">
-      <c r="A32" s="19">
-        <v>24</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="24" t="s">
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="17">
         <v>40</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="25">
-        <v>1</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="19">
-        <v>25</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="B48" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="14">
         <v>41</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="25">
-        <v>8</v>
-      </c>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="19">
-        <v>26</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="25">
-        <v>8</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="19">
-        <v>27</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="25">
-        <v>8</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="19">
-        <v>28</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="25">
-        <v>14</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="19">
-        <v>29</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="25">
-        <v>14</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="19">
-        <v>30</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="19">
-        <v>31</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="25">
-        <v>3</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="19">
-        <v>32</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="25">
-        <v>8</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="19">
-        <v>33</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="25">
-        <v>6</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="19">
-        <v>34</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="25">
-        <v>8</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="19">
-        <v>35</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="25">
-        <v>8</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="19">
-        <v>36</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="25">
-        <v>6</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="19">
-        <v>37</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="25">
-        <v>8</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="19">
-        <v>38</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="25"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="19">
-        <v>39</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="19">
-        <v>40</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="25"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="16">
-        <v>41</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="22">
         <v>6</v>
       </c>
     </row>
@@ -2265,7 +2248,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -2276,7 +2259,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -2287,7 +2270,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>68</v>
@@ -2298,7 +2281,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>60</v>
@@ -2309,7 +2292,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -2320,7 +2303,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>63</v>
@@ -2331,7 +2314,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>67</v>
@@ -2342,7 +2325,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>71</v>
@@ -2353,9 +2336,9 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2364,7 +2347,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>79</v>
@@ -2375,7 +2358,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>126</v>
@@ -2386,7 +2369,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>126</v>
@@ -2397,10 +2380,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>70</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD788970-D436-4AAC-BC64-3DC7C3F70693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BD98E-4115-4FF5-AD21-62B4B7653343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -667,6 +667,14 @@
 依據問題單754
 保證人戶號債協還款時新壽分配款應存入此借款人戶號</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payerCustNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayerCustNo=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1263,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2220,11 +2228,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2389,6 +2397,14 @@
         <v>70</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BD98E-4115-4FF5-AD21-62B4B7653343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C146863D-8E7A-4EA0-8C21-55695B6A47D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -675,6 +675,21 @@
   <si>
     <t>PayerCustNo=</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+  </si>
+  <si>
+    <t>債協案件若戶號為保證人與保貸戶則儲存戶名於此</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegCustName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>債協客戶戶名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,7 +777,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +787,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +950,21 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,9 +985,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -989,9 +1025,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,26 +1060,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1076,26 +1095,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1269,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2147,66 +2149,87 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17">
+      <c r="A46" s="28">
         <v>38</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="22"/>
+      <c r="B46" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="31">
+        <v>100</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="29" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="17">
         <v>39</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="22">
-        <v>6</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="17">
         <v>40</v>
       </c>
       <c r="B48" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="17">
+        <v>41</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="14">
-        <v>41</v>
-      </c>
-      <c r="B49" s="20" t="s">
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="17">
+        <v>42</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D50" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E50" s="22">
         <v>6</v>
       </c>
     </row>
@@ -2230,7 +2253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C146863D-8E7A-4EA0-8C21-55695B6A47D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779FE10-3867-4095-9529-98C18003FA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -176,18 +176,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>二階段註記</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>申請變更還款條件日</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>保貸戶須建立客戶主檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NegMain</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,9 +276,6 @@
   </si>
   <si>
     <t>CustNo=</t>
-  </si>
-  <si>
-    <t>CustNo=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -519,9 +508,6 @@
   <si>
     <t>CustNo Desc , CaseSeq Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款人戶號</t>
   </si>
   <si>
     <t>PayerCustNo</t>
@@ -680,15 +666,59 @@
     <t>NVARCHAR2</t>
   </si>
   <si>
-    <t>債協案件若戶號為保證人與保貸戶則儲存戶名於此</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NegCustName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>債協客戶戶名</t>
+    <t>NegCustId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號為999nnnn則儲存戶名於此</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號為999nnnn則儲存身分證字號於此</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>若為保證人或保貸戶,戶號一律新編999nnnn,不維護客戶主檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人戶號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegCustId=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo Asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>階段註記</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>negCustIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>negCustIdFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保證人/保貸戶ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>保證人/保貸戶戶名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +969,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -950,21 +1001,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1271,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1289,12 +1325,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1304,8 +1340,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1317,12 +1353,12 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1332,10 +1368,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -1343,10 +1379,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1354,10 +1390,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -1365,10 +1401,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -1398,15 +1434,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="32.4">
       <c r="A9" s="17">
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>37</v>
@@ -1415,8 +1451,8 @@
         <v>7</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="16" t="s">
-        <v>42</v>
+      <c r="G9" s="30" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1446,17 +1482,17 @@
         <v>21</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="22">
         <v>1</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="97.2">
@@ -1464,19 +1500,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="22">
         <v>1</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="64.8">
@@ -1490,14 +1526,14 @@
         <v>32</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="22">
         <v>1</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64.8">
@@ -1505,10 +1541,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>37</v>
@@ -1518,7 +1554,7 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1526,10 +1562,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>37</v>
@@ -1545,10 +1581,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>37</v>
@@ -1567,10 +1603,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="22">
         <v>8</v>
@@ -1583,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>33</v>
@@ -1604,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>34</v>
@@ -1644,13 +1680,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E21" s="22">
         <v>8</v>
@@ -1666,10 +1702,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E22" s="22">
         <v>8</v>
@@ -1682,20 +1718,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="22">
         <v>1</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1706,7 +1742,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>37</v>
@@ -1718,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1729,10 +1765,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="22">
         <v>8</v>
@@ -1745,10 +1781,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>37</v>
@@ -1760,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1771,7 +1807,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>37</v>
@@ -1783,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1791,10 +1827,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>37</v>
@@ -1806,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4">
@@ -1817,7 +1853,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>37</v>
@@ -1829,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1840,7 +1876,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>37</v>
@@ -1858,7 +1894,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>39</v>
@@ -1877,20 +1913,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="22">
         <v>1</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1901,10 +1937,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" s="22">
         <v>8</v>
@@ -1916,19 +1952,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E34" s="22">
         <v>8</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1936,19 +1972,19 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E35" s="22">
         <v>8</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1956,10 +1992,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>37</v>
@@ -1968,7 +2004,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1976,10 +2012,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>37</v>
@@ -1988,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1996,13 +2032,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E38" s="22">
         <v>8</v>
@@ -2013,19 +2049,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E39" s="22">
         <v>3</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2033,19 +2069,19 @@
         <v>32</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E40" s="22">
         <v>8</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2053,19 +2089,19 @@
         <v>33</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E41" s="22">
         <v>6</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2073,19 +2109,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E42" s="22">
         <v>8</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2093,19 +2129,19 @@
         <v>35</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E43" s="22">
         <v>8</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2113,19 +2149,19 @@
         <v>36</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E44" s="22">
         <v>6</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2133,103 +2169,124 @@
         <v>37</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E45" s="22">
         <v>8</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="28">
+      <c r="A46" s="24">
         <v>38</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="31" t="s">
+      <c r="B46" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="29">
+        <v>10</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="31">
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="24">
+        <v>39</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="27">
         <v>100</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="17">
-        <v>39</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="22"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="25" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="17">
         <v>40</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="22">
-        <v>6</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="17">
         <v>41</v>
       </c>
       <c r="B49" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="22"/>
+      <c r="E49" s="22">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="17">
         <v>42</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="17">
+        <v>43</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="22">
+      <c r="E51" s="22">
         <v>6</v>
       </c>
     </row>
@@ -2251,11 +2308,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2279,153 +2336,175 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779FE10-3867-4095-9529-98C18003FA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB15F3C7-D230-4257-8FB5-6EA8116BE457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -698,10 +698,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>階段註記</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -720,6 +716,10 @@
   <si>
     <t>保證人/保貸戶戶名</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NegCustId= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1916,7 +1916,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>51</v>
@@ -2192,7 +2192,7 @@
         <v>161</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>51</v>
@@ -2213,7 +2213,7 @@
         <v>160</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>159</v>
@@ -2310,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>166</v>
@@ -2498,13 +2498,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB15F3C7-D230-4257-8FB5-6EA8116BE457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E164D69F-BDFF-4088-A157-26D840B7F901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="177">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -201,10 +201,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -719,6 +715,21 @@
   </si>
   <si>
     <t xml:space="preserve">NegCustId= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>negCustNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo&gt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1309,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1358,7 +1369,7 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1439,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>37</v>
@@ -1452,7 +1463,7 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1482,17 +1493,17 @@
         <v>21</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="22">
         <v>1</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="97.2">
@@ -1500,19 +1511,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="22">
         <v>1</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="64.8">
@@ -1526,14 +1537,14 @@
         <v>32</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="22">
         <v>1</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64.8">
@@ -1541,10 +1552,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>37</v>
@@ -1554,7 +1565,7 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1562,10 +1573,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>37</v>
@@ -1581,10 +1592,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>37</v>
@@ -1603,10 +1614,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="E17" s="22">
         <v>8</v>
@@ -1619,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>33</v>
@@ -1640,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>34</v>
@@ -1680,13 +1691,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="22">
         <v>8</v>
@@ -1702,10 +1713,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="22">
         <v>8</v>
@@ -1718,20 +1729,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="22">
         <v>1</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1742,7 +1753,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>37</v>
@@ -1754,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1765,10 +1776,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="22">
         <v>8</v>
@@ -1781,10 +1792,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>37</v>
@@ -1796,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1807,7 +1818,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>37</v>
@@ -1819,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1827,10 +1838,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>37</v>
@@ -1842,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4">
@@ -1853,7 +1864,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>37</v>
@@ -1865,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1876,7 +1887,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>37</v>
@@ -1894,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>39</v>
@@ -1913,20 +1924,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="22">
         <v>1</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1940,7 +1951,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="22">
         <v>8</v>
@@ -1952,19 +1963,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="22">
         <v>8</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1972,19 +1983,19 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="22">
         <v>8</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1992,10 +2003,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>37</v>
@@ -2004,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2012,10 +2023,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>37</v>
@@ -2024,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2032,13 +2043,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="22">
         <v>8</v>
@@ -2049,19 +2060,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="E39" s="22">
         <v>3</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2069,19 +2080,19 @@
         <v>32</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="22">
         <v>8</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2089,19 +2100,19 @@
         <v>33</v>
       </c>
       <c r="B41" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="E41" s="22">
         <v>6</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2109,19 +2120,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="22">
         <v>8</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2129,19 +2140,19 @@
         <v>35</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" s="22">
         <v>8</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2149,19 +2160,19 @@
         <v>36</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="22">
         <v>6</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2169,19 +2180,19 @@
         <v>37</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="22">
         <v>8</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2189,20 +2200,20 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" s="29">
         <v>10</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2210,20 +2221,20 @@
         <v>39</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E47" s="27">
         <v>100</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2237,7 +2248,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="E48" s="22"/>
     </row>
@@ -2246,13 +2257,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="E49" s="22">
         <v>6</v>
@@ -2263,13 +2274,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="E50" s="22"/>
     </row>
@@ -2278,13 +2289,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="E51" s="22">
         <v>6</v>
@@ -2308,11 +2319,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2336,175 +2347,186 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
